--- a/excel/유의어db_정렬변경0416.xlsx
+++ b/excel/유의어db_정렬변경0416.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\consolework\tistory-convert\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ohong\Desktop\수집 변환 툴 기획\유의어db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{642F0B29-7F68-4B36-8F4B-CF13166B3AF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38510" yWindow="-2510" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="30720" windowHeight="13620"/>
   </bookViews>
   <sheets>
     <sheet name="양방향" sheetId="1" r:id="rId1"/>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="435">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="486">
   <si>
     <t>였다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -373,6 +372,9 @@
     <t>없습니다.=없어요.=없답니다.</t>
   </si>
   <si>
+    <t>하겠습니다.=해 보겠습니다.=해 볼게요.=해볼게요.</t>
+  </si>
+  <si>
     <t>했어요.=했습니다.</t>
   </si>
   <si>
@@ -388,6 +390,18 @@
     <t>되었습니다.=되었어요.=됐어요.</t>
   </si>
   <si>
+    <t>듭니다.=들어요.=들게 됩니다.</t>
+  </si>
+  <si>
+    <t>드리겠습니다.=드릴게요.=드리도록 할게요.</t>
+  </si>
+  <si>
+    <t>많습니다.=많아요.=많다고 해요.</t>
+  </si>
+  <si>
+    <t>높습니다.=높아요.=높다고 합니다.</t>
+  </si>
+  <si>
     <t>바랍니다.=바래요.=바랄게요.</t>
   </si>
   <si>
@@ -430,6 +444,12 @@
     <t>칩니다.=쳐요.</t>
   </si>
   <si>
+    <t>보겠습니다.=볼게요.=보도록 할게요.</t>
+  </si>
+  <si>
+    <t>봅시다.=볼게요.=보도록 합시다.</t>
+  </si>
+  <si>
     <t>봅니다.=봐요.=봅시다.</t>
   </si>
   <si>
@@ -439,30 +459,93 @@
     <t>졌습니다.=졌어요.</t>
   </si>
   <si>
+    <t>겁니다.=거예요.=것 입니다.</t>
+  </si>
+  <si>
+    <t>것이 좋아요.=편이 좋아요.=게 좋아요.</t>
+  </si>
+  <si>
     <t>돕습니다.=도와요.=도와줍니다.</t>
   </si>
   <si>
+    <t>얻습니다.=얻어요.=얻게 돼요.=얻게 됩니다.</t>
+  </si>
+  <si>
     <t>하였습니다.=하였어요.=했습니다.=했어요.</t>
   </si>
   <si>
+    <t>마치겠습니다.=마칠게요.=마치도록 하겠습니다.=마칩니다.</t>
+  </si>
+  <si>
     <t>아닙니다.=아니예요.</t>
   </si>
   <si>
     <t>않습니다.=않아요.</t>
   </si>
   <si>
+    <t>잃습니다.=잃어요.=잃게 돼요.=잃게 되어요.</t>
+  </si>
+  <si>
     <t>였습니다.=였어요.=였답니다.</t>
   </si>
   <si>
     <t>갔습니다.=갔어요.</t>
   </si>
   <si>
+    <t>도움이 되는=도움을 주는=도움되는</t>
+  </si>
+  <si>
+    <t>도움이 되기=도움을 주기=도움 되기</t>
+  </si>
+  <si>
+    <t>강하게 만들고=강하게 하고=강하게 만들며</t>
+  </si>
+  <si>
+    <t>하게 하고=하게 해주고=하게 하며</t>
+  </si>
+  <si>
+    <t>알아보겠습니다.=알아보시죠.=알아보도록 하겠습니다.=알아볼게요.</t>
+  </si>
+  <si>
+    <t>참고하세요.=참고하시기 바래요.=참고하시기 바랍니다.</t>
+  </si>
+  <si>
+    <t>효과를 보인다는=효과가 좋다는=효과가 나타난다는</t>
+  </si>
+  <si>
+    <t>확인됐습니다.=확인할 수 있습니다.=확인되고 있습니다.</t>
+  </si>
+  <si>
+    <t>밥을 먹거나=식사를 하거나=식사하거나=밥을 드시거나</t>
+  </si>
+  <si>
+    <t>늘어나고 있습니다.=증가하는 추세입니다.=늘어나고 있는 모습입니다.</t>
+  </si>
+  <si>
+    <t>판매하고 있습니다.=판매하고 있다고 합니다.=판매중에 있습니다.</t>
+  </si>
+  <si>
+    <t>좋을것 같습니다.=괜찮을 것 같습니다.= 괜찮을 듯 합니다.=좋을 듯 합니다.</t>
+  </si>
+  <si>
+    <t>좋을 것 같습니다.=괜찮을것 같습니다.= 괜찮을 듯 합니다.=좋을듯 합니다.</t>
+  </si>
+  <si>
+    <t>조심해야 합니다.=조심하는 것이 좋습니다.=주의해야 합니다.=주의하셔야 합니다.</t>
+  </si>
+  <si>
+    <t>해볼 수 있는=할 수 있는=해볼만한</t>
+  </si>
+  <si>
     <t>대해서=대하여=연관하여=관련하여</t>
   </si>
   <si>
     <t>합성한=합친=합해진</t>
   </si>
   <si>
+    <t>많이 계신 것 같은데=많으신데=많으실텐데</t>
+  </si>
+  <si>
     <t>낮추어=낮춰=감소시켜</t>
   </si>
   <si>
@@ -478,15 +561,24 @@
     <t>감소하=떨어지=떨어트리</t>
   </si>
   <si>
+    <t>감소시켜=낮춰=낮추어=감소하게 만들어</t>
+  </si>
+  <si>
     <t>함유되=포함되</t>
   </si>
   <si>
     <t>억제시켜=억제해</t>
   </si>
   <si>
+    <t>들어 있는=포함되어 있는=들어가 있는</t>
+  </si>
+  <si>
     <t>유발하=일으키</t>
   </si>
   <si>
+    <t>이라는=이라고 하는=이라 하는</t>
+  </si>
+  <si>
     <t>배출시켜=배출해</t>
   </si>
   <si>
@@ -505,12 +597,36 @@
     <t>원인이 되는=원인인=원인의</t>
   </si>
   <si>
+    <t>생성해 주는=만들어 주는</t>
+  </si>
+  <si>
     <t>유지해=지속시켜</t>
   </si>
   <si>
     <t>돕고=도와주고=도와주며</t>
   </si>
   <si>
+    <t>과다 섭취=과하게 섭취=많이 섭취</t>
+  </si>
+  <si>
+    <t>찬 성질=차가운 성질=냉한 성질</t>
+  </si>
+  <si>
+    <t>생길 수=일어날 수=생기게 될 수</t>
+  </si>
+  <si>
+    <t>있기 때문에=있으므로</t>
+  </si>
+  <si>
+    <t>효과적이며=효과가 뛰어나며=효과가 대단하며</t>
+  </si>
+  <si>
+    <t>효과적이고=효과가 뛰어나고=효과가 대단하고</t>
+  </si>
+  <si>
+    <t>준다고 알려져=주는 것으로 알려져=준다는 것으로 알려져</t>
+  </si>
+  <si>
     <t>줄이고=줄여주고=줄이게 되고</t>
   </si>
   <si>
@@ -568,6 +684,9 @@
     <t>내외로=안팎으로=안과 밖으로</t>
   </si>
   <si>
+    <t>이제부터=지금부터=바로 지금부터=현 시점부터</t>
+  </si>
+  <si>
     <t>으뜸인=최고인=제일인</t>
   </si>
   <si>
@@ -598,6 +717,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>가격도 저렴하며=가격도 싸며=가격이 저렴하고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>풀어주=해소해주=해소해 주</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>효능=효험</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -945,6 +1072,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>할 수 있도록=할 수 있게=하도록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>강력한= 강한=엄청난</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1001,6 +1132,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>효과적이어서=효과가 좋아서=효과가 상당해서=효과가 높아서</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t xml:space="preserve"> 돼요.= 되어요.= 됩니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1009,6 +1144,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>보고돼요.=보고됩니다.=보고되고 있습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>대해서는=대해선</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1169,6 +1308,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>뿐만 아니라=뿐더러=뿐 아니라</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>더구나=더군다나</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1225,6 +1368,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>낮추는=감소시키는=감소하게 만드는</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>많으므로=풍부하므로</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1241,6 +1388,18 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>드립니다.=드려요.=드리겠습니다.=드리도록 하겠습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>알려드리겠습니다.=알려드리도록 하겠습니다.=알려드릴게요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도움을 주어=도움이 되고=도움줘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>해요.=합니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1646,6 +1805,10 @@
   </si>
   <si>
     <t>예방할=미리 막을=방지할</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>생성하는=만드는=만들어 주는</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1688,7 +1851,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1767,7 +1930,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1776,6 +1939,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
@@ -2071,11 +2240,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S161"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A92"/>
+      <selection activeCell="A138" sqref="A138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2088,71 +2257,68 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="B2" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+        <v>211</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="3" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>137</v>
-      </c>
-      <c r="B3" t="s">
-        <v>393</v>
+        <v>134</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>325</v>
-      </c>
-      <c r="B4" t="s">
-        <v>323</v>
+        <v>135</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>370</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>136</v>
+        <v>156</v>
       </c>
       <c r="B5" t="s">
-        <v>280</v>
+        <v>325</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B6" t="s">
-        <v>318</v>
+        <v>364</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>140</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>264</v>
+        <v>137</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>157</v>
+        <v>138</v>
       </c>
       <c r="B8" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>171</v>
+        <v>139</v>
       </c>
       <c r="B9" t="s">
         <v>87</v>
@@ -2160,7 +2326,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>180</v>
+        <v>140</v>
       </c>
       <c r="B10" t="s">
         <v>88</v>
@@ -2168,7 +2334,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>179</v>
+        <v>141</v>
       </c>
       <c r="B11" t="s">
         <v>89</v>
@@ -2176,983 +2342,1143 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>181</v>
+        <v>142</v>
       </c>
       <c r="B12" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>303</v>
+        <v>147</v>
       </c>
       <c r="B13" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>406</v>
+        <v>372</v>
       </c>
       <c r="B14" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>429</v>
+        <v>307</v>
       </c>
       <c r="B15" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" s="3" t="s">
-        <v>405</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>94</v>
+      <c r="A16" t="s">
+        <v>143</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>183</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>265</v>
+      <c r="A17" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>235</v>
+        <v>144</v>
       </c>
       <c r="B18" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A19" s="4" t="s">
-        <v>170</v>
+      <c r="A19" s="3" t="s">
+        <v>292</v>
       </c>
       <c r="B19" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>158</v>
+        <v>371</v>
       </c>
       <c r="B20" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>159</v>
+        <v>172</v>
       </c>
       <c r="B21" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>238</v>
+        <v>173</v>
       </c>
       <c r="B22" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>241</v>
+      <c r="A23" s="5" t="s">
+        <v>124</v>
       </c>
       <c r="B23" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>242</v>
+        <v>120</v>
       </c>
       <c r="B24" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>245</v>
+        <v>90</v>
       </c>
       <c r="B25" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>246</v>
+        <v>114</v>
       </c>
       <c r="B26" t="s">
-        <v>103</v>
-      </c>
-      <c r="S26" s="5"/>
+        <v>108</v>
+      </c>
+      <c r="S26" s="7"/>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>256</v>
+        <v>174</v>
       </c>
       <c r="B27" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>257</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>112</v>
+        <v>127</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>270</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>105</v>
+        <v>115</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>272</v>
+        <v>203</v>
       </c>
       <c r="B30" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>273</v>
+        <v>97</v>
       </c>
       <c r="B31" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>274</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>108</v>
+        <v>98</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>275</v>
+        <v>130</v>
       </c>
       <c r="B33" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>276</v>
+        <v>131</v>
       </c>
       <c r="B34" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>277</v>
+      <c r="A35" s="3" t="s">
+        <v>373</v>
       </c>
       <c r="B35" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>263</v>
+        <v>194</v>
       </c>
       <c r="B36" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>142</v>
+      <c r="A37" s="6" t="s">
+        <v>122</v>
       </c>
       <c r="B37" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>131</v>
+        <v>96</v>
       </c>
       <c r="B38" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>154</v>
+        <v>99</v>
       </c>
       <c r="B39" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>430</v>
+        <v>119</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>182</v>
+        <v>224</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>297</v>
+        <v>132</v>
       </c>
       <c r="B41" t="s">
-        <v>250</v>
+        <v>293</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>298</v>
+        <v>133</v>
       </c>
       <c r="B42" t="s">
-        <v>266</v>
+        <v>311</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>299</v>
+        <v>153</v>
       </c>
       <c r="B43" t="s">
-        <v>118</v>
+        <v>145</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
-        <v>432</v>
+      <c r="A44" s="3" t="s">
+        <v>366</v>
       </c>
       <c r="B44" t="s">
-        <v>119</v>
+        <v>146</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>86</v>
+        <v>204</v>
       </c>
       <c r="B45" t="s">
-        <v>120</v>
+        <v>148</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>309</v>
+        <v>158</v>
       </c>
       <c r="B46" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>399</v>
+        <v>165</v>
       </c>
       <c r="B47" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
-        <v>311</v>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="3" t="s">
+        <v>476</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>409</v>
+        <v>168</v>
       </c>
       <c r="B49" t="s">
-        <v>123</v>
+        <v>151</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>398</v>
+        <v>169</v>
       </c>
       <c r="B50" t="s">
-        <v>124</v>
+        <v>152</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>312</v>
+        <v>170</v>
       </c>
       <c r="B51" t="s">
-        <v>126</v>
+        <v>155</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>313</v>
+        <v>351</v>
       </c>
       <c r="B52" t="s">
-        <v>127</v>
+        <v>157</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>314</v>
+        <v>171</v>
       </c>
       <c r="B53" t="s">
-        <v>128</v>
+        <v>159</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>315</v>
+        <v>294</v>
       </c>
       <c r="B54" t="s">
-        <v>129</v>
+        <v>160</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>316</v>
+        <v>176</v>
       </c>
       <c r="B55" t="s">
-        <v>130</v>
+        <v>161</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>317</v>
-      </c>
-      <c r="B56" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+        <v>375</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>319</v>
+        <v>175</v>
       </c>
       <c r="B57" t="s">
-        <v>132</v>
+        <v>163</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>327</v>
+        <v>178</v>
       </c>
       <c r="B58" t="s">
-        <v>133</v>
+        <v>164</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>328</v>
+        <v>179</v>
       </c>
       <c r="B59" t="s">
-        <v>161</v>
+        <v>201</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>329</v>
+        <v>197</v>
       </c>
       <c r="B60" t="s">
-        <v>162</v>
+        <v>202</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>330</v>
+        <v>213</v>
       </c>
       <c r="B61" t="s">
-        <v>134</v>
+        <v>166</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>332</v>
+        <v>222</v>
       </c>
       <c r="B62" t="s">
-        <v>135</v>
+        <v>167</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>333</v>
-      </c>
-      <c r="B63" t="s">
-        <v>306</v>
+        <v>221</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>352</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>342</v>
+        <v>223</v>
       </c>
       <c r="B64" t="s">
-        <v>424</v>
+        <v>474</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A65" t="s">
-        <v>346</v>
+      <c r="A65" s="3" t="s">
+        <v>348</v>
       </c>
       <c r="B65" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A66" t="s">
-        <v>425</v>
+        <v>177</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="3" t="s">
+        <v>456</v>
       </c>
       <c r="B66" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A67" t="s">
-        <v>349</v>
+        <v>180</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="3" t="s">
+        <v>480</v>
       </c>
       <c r="B67" t="s">
-        <v>160</v>
+        <v>200</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A68" t="s">
-        <v>350</v>
+      <c r="A68" s="5" t="s">
+        <v>455</v>
       </c>
       <c r="B68" t="s">
-        <v>143</v>
+        <v>182</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>354</v>
+        <v>225</v>
       </c>
       <c r="B69" t="s">
-        <v>144</v>
+        <v>183</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>365</v>
+        <v>277</v>
       </c>
       <c r="B70" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A71" t="s">
-        <v>367</v>
+        <v>184</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="6" t="s">
+        <v>212</v>
       </c>
       <c r="B71" t="s">
-        <v>146</v>
+        <v>185</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>375</v>
+        <v>198</v>
       </c>
       <c r="B72" t="s">
-        <v>147</v>
+        <v>186</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>377</v>
+        <v>199</v>
       </c>
       <c r="B73" t="s">
-        <v>148</v>
+        <v>187</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>387</v>
+        <v>280</v>
       </c>
       <c r="B74" t="s">
-        <v>149</v>
+        <v>188</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>389</v>
+        <v>283</v>
       </c>
       <c r="B75" t="s">
-        <v>150</v>
+        <v>189</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>386</v>
+        <v>284</v>
       </c>
       <c r="B76" t="s">
-        <v>151</v>
+        <v>190</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>385</v>
+        <v>287</v>
       </c>
       <c r="B77" t="s">
-        <v>152</v>
+        <v>191</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>379</v>
+        <v>288</v>
       </c>
       <c r="B78" t="s">
-        <v>392</v>
+        <v>442</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>380</v>
+        <v>299</v>
       </c>
       <c r="B79" t="s">
-        <v>391</v>
+        <v>441</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>381</v>
+        <v>300</v>
       </c>
       <c r="B80" t="s">
-        <v>321</v>
+        <v>368</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>383</v>
+        <v>315</v>
       </c>
       <c r="B81" t="s">
-        <v>153</v>
+        <v>192</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>397</v>
+        <v>317</v>
       </c>
       <c r="B82" t="s">
-        <v>353</v>
+        <v>403</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>402</v>
+        <v>318</v>
       </c>
       <c r="B83" t="s">
-        <v>155</v>
+        <v>195</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>403</v>
+        <v>319</v>
       </c>
       <c r="B84" t="s">
-        <v>156</v>
+        <v>196</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>434</v>
+        <v>320</v>
       </c>
       <c r="B85" t="s">
-        <v>252</v>
+        <v>295</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>404</v>
+        <v>321</v>
       </c>
       <c r="B86" t="s">
-        <v>253</v>
+        <v>296</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>408</v>
+        <v>322</v>
       </c>
       <c r="B87" t="s">
-        <v>372</v>
+        <v>422</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>422</v>
+        <v>306</v>
       </c>
       <c r="B88" t="s">
-        <v>165</v>
+        <v>207</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>423</v>
+        <v>181</v>
       </c>
       <c r="B89" t="s">
-        <v>163</v>
+        <v>205</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>426</v>
+        <v>162</v>
       </c>
       <c r="B90" t="s">
-        <v>164</v>
+        <v>206</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>427</v>
+        <v>193</v>
       </c>
       <c r="B91" t="s">
-        <v>166</v>
+        <v>208</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>428</v>
+        <v>481</v>
       </c>
       <c r="B92" t="s">
-        <v>167</v>
+        <v>209</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>342</v>
+      </c>
       <c r="B93" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>343</v>
+      </c>
+      <c r="B94" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>344</v>
+      </c>
+      <c r="B95" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>483</v>
+      </c>
+      <c r="B96" s="3" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>86</v>
+      </c>
+      <c r="B97" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>355</v>
+      </c>
+      <c r="B98" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="3" t="s">
+        <v>449</v>
+      </c>
+      <c r="B99" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>357</v>
+      </c>
+      <c r="B100" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B94" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B95" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B96" t="s">
+    <row r="101" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A101" s="3" t="s">
+        <v>459</v>
+      </c>
+      <c r="B101" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>448</v>
+      </c>
+      <c r="B102" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>358</v>
+      </c>
+      <c r="B103" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>359</v>
+      </c>
+      <c r="B104" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>360</v>
+      </c>
+      <c r="B105" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>361</v>
+      </c>
+      <c r="B106" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>362</v>
+      </c>
+      <c r="B107" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>363</v>
+      </c>
+      <c r="B108" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>365</v>
+      </c>
+      <c r="B109" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>377</v>
+      </c>
+      <c r="B110" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>378</v>
+      </c>
+      <c r="B111" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>379</v>
+      </c>
+      <c r="B112" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>380</v>
+      </c>
+      <c r="B113" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>382</v>
+      </c>
+      <c r="B114" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>383</v>
+      </c>
+      <c r="B115" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>392</v>
+      </c>
+      <c r="B116" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>396</v>
+      </c>
+      <c r="B117" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A118" s="3" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>399</v>
+      </c>
+      <c r="B119" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
         <v>400</v>
       </c>
-    </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B97" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B98" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B99" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B100" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B101" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="102" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B102" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="103" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B103" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="104" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B104" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="105" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B105" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="106" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B106" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="107" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B107" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="108" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B108" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="109" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B109" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="110" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B110" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="111" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B111" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="112" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B112" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="113" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B113" t="s">
+      <c r="B120" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
+        <v>404</v>
+      </c>
+      <c r="B121" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
+        <v>415</v>
+      </c>
+      <c r="B122" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
+        <v>417</v>
+      </c>
+      <c r="B123" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
+        <v>425</v>
+      </c>
+      <c r="B124" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="114" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B114" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="115" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B115" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="116" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B116" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="117" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B117" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="119" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B119" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="120" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B120" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="121" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B121" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="122" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B122" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="123" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B123" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="124" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B124" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="125" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>427</v>
+      </c>
       <c r="B125" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="126" spans="2:2" x14ac:dyDescent="0.3">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>437</v>
+      </c>
       <c r="B126" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="127" spans="2:2" x14ac:dyDescent="0.3">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>439</v>
+      </c>
       <c r="B127" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="128" spans="2:2" x14ac:dyDescent="0.3">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
+        <v>436</v>
+      </c>
       <c r="B128" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="129" spans="2:2" x14ac:dyDescent="0.3">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
+        <v>435</v>
+      </c>
       <c r="B129" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="130" spans="2:2" x14ac:dyDescent="0.3">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
+        <v>429</v>
+      </c>
       <c r="B130" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="131" spans="2:2" x14ac:dyDescent="0.3">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
+        <v>430</v>
+      </c>
       <c r="B131" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="132" spans="2:2" x14ac:dyDescent="0.3">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
+        <v>431</v>
+      </c>
       <c r="B132" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="133" spans="2:2" x14ac:dyDescent="0.3">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
+        <v>433</v>
+      </c>
       <c r="B133" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="134" spans="2:2" x14ac:dyDescent="0.3">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
+        <v>447</v>
+      </c>
       <c r="B134" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="135" spans="2:2" x14ac:dyDescent="0.3">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
+        <v>452</v>
+      </c>
       <c r="B135" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="136" spans="2:2" x14ac:dyDescent="0.3">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
+        <v>453</v>
+      </c>
       <c r="B136" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="138" spans="2:2" x14ac:dyDescent="0.3">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A137" s="3" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
+        <v>454</v>
+      </c>
       <c r="B138" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="139" spans="2:2" x14ac:dyDescent="0.3">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
+        <v>458</v>
+      </c>
       <c r="B139" s="2" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="140" spans="2:2" x14ac:dyDescent="0.3">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
+        <v>472</v>
+      </c>
       <c r="B140" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="141" spans="2:2" x14ac:dyDescent="0.3">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
+        <v>473</v>
+      </c>
       <c r="B141" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="142" spans="2:2" x14ac:dyDescent="0.3">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
+        <v>477</v>
+      </c>
       <c r="B142" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="143" spans="2:2" x14ac:dyDescent="0.3">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
+        <v>478</v>
+      </c>
       <c r="B143" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="144" spans="2:2" x14ac:dyDescent="0.3">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
+        <v>479</v>
+      </c>
       <c r="B144" t="s">
-        <v>376</v>
+        <v>426</v>
       </c>
     </row>
     <row r="145" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B145" t="s">
-        <v>378</v>
+        <v>428</v>
       </c>
     </row>
     <row r="146" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B146" t="s">
-        <v>382</v>
+        <v>432</v>
       </c>
     </row>
     <row r="147" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B147" t="s">
-        <v>388</v>
+        <v>438</v>
       </c>
     </row>
     <row r="148" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B148" t="s">
-        <v>384</v>
+        <v>434</v>
       </c>
     </row>
     <row r="149" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B149" t="s">
-        <v>390</v>
+        <v>440</v>
       </c>
     </row>
     <row r="150" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B150" t="s">
-        <v>395</v>
+        <v>445</v>
       </c>
     </row>
     <row r="151" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B151" t="s">
-        <v>396</v>
+        <v>446</v>
       </c>
     </row>
     <row r="152" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B152" t="s">
-        <v>401</v>
+        <v>451</v>
       </c>
     </row>
     <row r="153" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B153" t="s">
-        <v>407</v>
+        <v>457</v>
       </c>
     </row>
     <row r="154" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B154" t="s">
-        <v>412</v>
+        <v>462</v>
       </c>
     </row>
     <row r="155" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B155" t="s">
-        <v>413</v>
+        <v>463</v>
       </c>
     </row>
     <row r="156" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B156" t="s">
-        <v>416</v>
+        <v>466</v>
       </c>
     </row>
     <row r="157" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B157" t="s">
-        <v>417</v>
+        <v>467</v>
       </c>
     </row>
     <row r="158" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B158" t="s">
-        <v>418</v>
+        <v>468</v>
       </c>
     </row>
     <row r="159" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B159" t="s">
-        <v>419</v>
+        <v>469</v>
       </c>
     </row>
     <row r="160" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B160" t="s">
-        <v>421</v>
+        <v>471</v>
       </c>
     </row>
     <row r="161" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B161" t="s">
-        <v>433</v>
+        <v>484</v>
       </c>
     </row>
   </sheetData>
@@ -3163,8 +3489,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F93"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I93"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A11" sqref="A11:XFD13"/>
@@ -3187,74 +3513,74 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>356</v>
+        <v>406</v>
       </c>
       <c r="B2" t="s">
-        <v>357</v>
+        <v>407</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>359</v>
+        <v>409</v>
       </c>
       <c r="B3" t="s">
-        <v>358</v>
+        <v>408</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>360</v>
+        <v>410</v>
       </c>
       <c r="B4" t="s">
-        <v>361</v>
+        <v>411</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>362</v>
+        <v>412</v>
       </c>
       <c r="B5" t="s">
-        <v>363</v>
+        <v>413</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>369</v>
+        <v>419</v>
       </c>
       <c r="B6" t="s">
-        <v>370</v>
+        <v>420</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>304</v>
+        <v>349</v>
       </c>
       <c r="B7" t="s">
-        <v>305</v>
+        <v>350</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>347</v>
+        <v>397</v>
       </c>
       <c r="B8" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="E9" t="s">
-        <v>410</v>
-      </c>
-      <c r="F9" t="s">
-        <v>411</v>
+        <v>398</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E9" s="3" t="s">
+        <v>460</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>461</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>351</v>
+        <v>401</v>
       </c>
       <c r="B10" t="s">
-        <v>352</v>
+        <v>402</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -3262,7 +3588,7 @@
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>188</v>
+        <v>230</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -3270,15 +3596,15 @@
         <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>187</v>
+        <v>229</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>339</v>
+        <v>389</v>
       </c>
       <c r="B13" t="s">
-        <v>186</v>
+        <v>228</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -3286,7 +3612,7 @@
         <v>33</v>
       </c>
       <c r="B14" t="s">
-        <v>185</v>
+        <v>227</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
@@ -3294,7 +3620,7 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>286</v>
+        <v>331</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
@@ -3302,34 +3628,34 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>53</v>
       </c>
       <c r="B17" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>1</v>
       </c>
       <c r="B18" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>11</v>
       </c>
       <c r="B19" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -3337,15 +3663,15 @@
         <v>75</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -3353,92 +3679,99 @@
         <v>76</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>337</v>
+        <v>387</v>
       </c>
       <c r="B23" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>335</v>
+        <v>385</v>
       </c>
       <c r="B24" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>334</v>
+        <v>384</v>
       </c>
       <c r="B25" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>73</v>
       </c>
       <c r="B26" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="I26" s="3"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>64</v>
       </c>
       <c r="B27" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="I27" s="3"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>47</v>
       </c>
       <c r="B28" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="I28" s="3"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>48</v>
       </c>
       <c r="B29" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+        <v>270</v>
+      </c>
+      <c r="I29" s="3"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>69</v>
       </c>
       <c r="B30" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="I30" s="3"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>63</v>
       </c>
       <c r="B31" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+        <v>271</v>
+      </c>
+      <c r="I31" s="3"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>62</v>
       </c>
       <c r="B32" t="s">
-        <v>230</v>
-      </c>
+        <v>272</v>
+      </c>
+      <c r="I32" s="3"/>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>54</v>
       </c>
       <c r="B33" t="s">
-        <v>231</v>
+        <v>273</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
@@ -3446,7 +3779,7 @@
         <v>55</v>
       </c>
       <c r="B34" t="s">
-        <v>232</v>
+        <v>274</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
@@ -3454,7 +3787,7 @@
         <v>61</v>
       </c>
       <c r="B35" t="s">
-        <v>233</v>
+        <v>275</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
@@ -3467,26 +3800,26 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>261</v>
-      </c>
-      <c r="B37" t="s">
-        <v>262</v>
+        <v>304</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>300</v>
+        <v>345</v>
       </c>
       <c r="B38" t="s">
-        <v>301</v>
+        <v>346</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>302</v>
+        <v>347</v>
       </c>
       <c r="B39" t="s">
-        <v>307</v>
+        <v>353</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
@@ -3494,7 +3827,7 @@
         <v>21</v>
       </c>
       <c r="B40" t="s">
-        <v>198</v>
+        <v>240</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
@@ -3510,7 +3843,7 @@
         <v>23</v>
       </c>
       <c r="B42" t="s">
-        <v>199</v>
+        <v>241</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
@@ -3518,7 +3851,7 @@
         <v>49</v>
       </c>
       <c r="B43" t="s">
-        <v>200</v>
+        <v>242</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
@@ -3526,7 +3859,7 @@
         <v>24</v>
       </c>
       <c r="B44" t="s">
-        <v>201</v>
+        <v>243</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
@@ -3534,7 +3867,7 @@
         <v>50</v>
       </c>
       <c r="B45" t="s">
-        <v>202</v>
+        <v>244</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
@@ -3542,7 +3875,7 @@
         <v>25</v>
       </c>
       <c r="B46" t="s">
-        <v>287</v>
+        <v>332</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
@@ -3558,7 +3891,7 @@
         <v>26</v>
       </c>
       <c r="B48" t="s">
-        <v>288</v>
+        <v>333</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
@@ -3566,7 +3899,7 @@
         <v>14</v>
       </c>
       <c r="B49" t="s">
-        <v>203</v>
+        <v>245</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
@@ -3574,7 +3907,7 @@
         <v>28</v>
       </c>
       <c r="B50" t="s">
-        <v>204</v>
+        <v>246</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
@@ -3582,7 +3915,7 @@
         <v>51</v>
       </c>
       <c r="B51" t="s">
-        <v>205</v>
+        <v>247</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
@@ -3590,7 +3923,7 @@
         <v>29</v>
       </c>
       <c r="B52" t="s">
-        <v>206</v>
+        <v>248</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
@@ -3598,7 +3931,7 @@
         <v>30</v>
       </c>
       <c r="B53" t="s">
-        <v>207</v>
+        <v>249</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
@@ -3606,7 +3939,7 @@
         <v>31</v>
       </c>
       <c r="B54" t="s">
-        <v>208</v>
+        <v>250</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
@@ -3614,7 +3947,7 @@
         <v>67</v>
       </c>
       <c r="B55" t="s">
-        <v>209</v>
+        <v>251</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
@@ -3622,7 +3955,7 @@
         <v>68</v>
       </c>
       <c r="B56" t="s">
-        <v>210</v>
+        <v>252</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
@@ -3630,7 +3963,7 @@
         <v>32</v>
       </c>
       <c r="B57" t="s">
-        <v>211</v>
+        <v>253</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
@@ -3638,7 +3971,7 @@
         <v>34</v>
       </c>
       <c r="B58" t="s">
-        <v>212</v>
+        <v>254</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
@@ -3646,7 +3979,7 @@
         <v>65</v>
       </c>
       <c r="B59" t="s">
-        <v>213</v>
+        <v>255</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
@@ -3654,7 +3987,7 @@
         <v>66</v>
       </c>
       <c r="B60" t="s">
-        <v>214</v>
+        <v>256</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
@@ -3662,7 +3995,7 @@
         <v>35</v>
       </c>
       <c r="B61" t="s">
-        <v>215</v>
+        <v>257</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
@@ -3678,7 +4011,7 @@
         <v>59</v>
       </c>
       <c r="B63" t="s">
-        <v>216</v>
+        <v>258</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
@@ -3686,135 +4019,143 @@
         <v>58</v>
       </c>
       <c r="B64" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>36</v>
       </c>
       <c r="B65" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>52</v>
       </c>
       <c r="B66" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>37</v>
       </c>
       <c r="B67" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>38</v>
       </c>
       <c r="B68" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+        <v>263</v>
+      </c>
+      <c r="I68" s="3"/>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>45</v>
       </c>
       <c r="B69" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+        <v>264</v>
+      </c>
+      <c r="I69" s="3"/>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>39</v>
       </c>
       <c r="B70" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+        <v>265</v>
+      </c>
+      <c r="I70" s="3"/>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>60</v>
       </c>
       <c r="B71" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+        <v>266</v>
+      </c>
+      <c r="I71" s="3"/>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>40</v>
       </c>
       <c r="B72" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+        <v>267</v>
+      </c>
+      <c r="I72" s="3"/>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>3</v>
       </c>
       <c r="B73" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+        <v>268</v>
+      </c>
+      <c r="I73" s="3"/>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>42</v>
       </c>
       <c r="B74" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+        <v>269</v>
+      </c>
+      <c r="I74" s="3"/>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>43</v>
       </c>
       <c r="B75" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+        <v>421</v>
+      </c>
+      <c r="I75" s="3"/>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>340</v>
+        <v>390</v>
       </c>
       <c r="B76" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>364</v>
+        <v>414</v>
       </c>
       <c r="B77" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>6</v>
       </c>
       <c r="B78" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>0</v>
       </c>
       <c r="B79" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>22</v>
       </c>
       <c r="B80" t="s">
-        <v>174</v>
+        <v>216</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
@@ -3822,7 +4163,7 @@
         <v>9</v>
       </c>
       <c r="B81" t="s">
-        <v>175</v>
+        <v>217</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
@@ -3830,7 +4171,7 @@
         <v>2</v>
       </c>
       <c r="B82" t="s">
-        <v>176</v>
+        <v>218</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
@@ -3838,7 +4179,7 @@
         <v>41</v>
       </c>
       <c r="B83" t="s">
-        <v>177</v>
+        <v>219</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
@@ -3846,7 +4187,7 @@
         <v>4</v>
       </c>
       <c r="B84" t="s">
-        <v>178</v>
+        <v>220</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
@@ -3854,7 +4195,7 @@
         <v>57</v>
       </c>
       <c r="B85" t="s">
-        <v>195</v>
+        <v>237</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
@@ -3862,7 +4203,7 @@
         <v>5</v>
       </c>
       <c r="B86" t="s">
-        <v>194</v>
+        <v>236</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
@@ -3870,7 +4211,7 @@
         <v>7</v>
       </c>
       <c r="B87" t="s">
-        <v>193</v>
+        <v>235</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
@@ -3878,7 +4219,7 @@
         <v>27</v>
       </c>
       <c r="B88" t="s">
-        <v>262</v>
+        <v>305</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
@@ -3886,7 +4227,7 @@
         <v>8</v>
       </c>
       <c r="B89" t="s">
-        <v>192</v>
+        <v>234</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
@@ -3894,7 +4235,7 @@
         <v>10</v>
       </c>
       <c r="B90" t="s">
-        <v>191</v>
+        <v>233</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
@@ -3902,7 +4243,7 @@
         <v>12</v>
       </c>
       <c r="B91" t="s">
-        <v>190</v>
+        <v>232</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
@@ -3910,15 +4251,15 @@
         <v>56</v>
       </c>
       <c r="B92" t="s">
-        <v>189</v>
+        <v>231</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>414</v>
+        <v>464</v>
       </c>
       <c r="B93" t="s">
-        <v>415</v>
+        <v>465</v>
       </c>
     </row>
   </sheetData>

--- a/excel/유의어db_정렬변경0416.xlsx
+++ b/excel/유의어db_정렬변경0416.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ohong\Desktop\수집 변환 툴 기획\유의어db\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\consolework\tistory-convert\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A94EC3E-FC07-4B78-9FD7-937E5CB21ED3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="30720" windowHeight="13620"/>
+    <workbookView xWindow="-38510" yWindow="-2510" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="양방향" sheetId="1" r:id="rId1"/>
@@ -504,9 +505,6 @@
     <t>하게 하고=하게 해주고=하게 하며</t>
   </si>
   <si>
-    <t>알아보겠습니다.=알아보시죠.=알아보도록 하겠습니다.=알아볼게요.</t>
-  </si>
-  <si>
     <t>참고하세요.=참고하시기 바래요.=참고하시기 바랍니다.</t>
   </si>
   <si>
@@ -1784,10 +1782,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>먹어서=섭취해서=복용해서</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>일정하게=균일하게=동일하게=고르게=변함없게</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1845,13 +1839,21 @@
   </si>
   <si>
     <t>맛도 좋아서=맛도 뛰어나서=풍미가 뛰어나서</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>알아보겠습니다.=알아보시죠.=알아보도록 하겠습니다.=알아볼게요.=</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>먹어서=섭취해서=복용해서===</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1930,7 +1932,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1939,12 +1941,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
@@ -2240,11 +2236,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S161"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A138" sqref="A138"/>
+      <selection activeCell="M26" sqref="M26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2257,60 +2253,60 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="B1" s="4" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="3" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>134</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>443</v>
+        <v>484</v>
+      </c>
+      <c r="B3" t="s">
+        <v>442</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>135</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>370</v>
+        <v>134</v>
+      </c>
+      <c r="B4" t="s">
+        <v>369</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B5" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B6" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>137</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>308</v>
+        <v>136</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B8" t="s">
         <v>123</v>
@@ -2318,7 +2314,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B9" t="s">
         <v>87</v>
@@ -2326,7 +2322,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B10" t="s">
         <v>88</v>
@@ -2334,7 +2330,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B11" t="s">
         <v>89</v>
@@ -2342,7 +2338,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B12" t="s">
         <v>91</v>
@@ -2350,7 +2346,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B13" t="s">
         <v>92</v>
@@ -2358,7 +2354,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B14" t="s">
         <v>93</v>
@@ -2366,7 +2362,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B15" t="s">
         <v>94</v>
@@ -2374,31 +2370,31 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>143</v>
-      </c>
-      <c r="B16" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="B16" s="7" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A17" s="6" t="s">
-        <v>310</v>
-      </c>
-      <c r="B17" s="9" t="s">
+      <c r="A17" s="4" t="s">
         <v>309</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B18" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A19" s="3" t="s">
-        <v>292</v>
+      <c r="A19" t="s">
+        <v>291</v>
       </c>
       <c r="B19" t="s">
         <v>101</v>
@@ -2406,15 +2402,15 @@
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B20" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="21" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B21" t="s">
         <v>103</v>
@@ -2422,14 +2418,14 @@
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B22" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A23" s="5" t="s">
+      <c r="A23" s="3" t="s">
         <v>124</v>
       </c>
       <c r="B23" t="s">
@@ -2459,11 +2455,11 @@
       <c r="B26" t="s">
         <v>108</v>
       </c>
-      <c r="S26" s="7"/>
+      <c r="S26" s="5"/>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B27" t="s">
         <v>109</v>
@@ -2473,7 +2469,7 @@
       <c r="A28" t="s">
         <v>127</v>
       </c>
-      <c r="B28" s="8" t="s">
+      <c r="B28" s="6" t="s">
         <v>121</v>
       </c>
     </row>
@@ -2481,13 +2477,13 @@
       <c r="A29" t="s">
         <v>115</v>
       </c>
-      <c r="B29" s="8" t="s">
+      <c r="B29" s="6" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B30" t="s">
         <v>111</v>
@@ -2505,7 +2501,7 @@
       <c r="A32" t="s">
         <v>98</v>
       </c>
-      <c r="B32" s="5" t="s">
+      <c r="B32" s="3" t="s">
         <v>113</v>
       </c>
     </row>
@@ -2526,8 +2522,8 @@
       </c>
     </row>
     <row r="35" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="3" t="s">
-        <v>373</v>
+      <c r="A35" t="s">
+        <v>372</v>
       </c>
       <c r="B35" t="s">
         <v>118</v>
@@ -2535,21 +2531,21 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B36" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37" s="6" t="s">
+      <c r="A37" s="4" t="s">
         <v>122</v>
       </c>
       <c r="B37" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="38" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>96</v>
       </c>
@@ -2570,7 +2566,7 @@
         <v>119</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
@@ -2578,7 +2574,7 @@
         <v>132</v>
       </c>
       <c r="B41" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
@@ -2586,436 +2582,436 @@
         <v>133</v>
       </c>
       <c r="B42" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B43" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>365</v>
+      </c>
+      <c r="B44" t="s">
         <v>145</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A44" s="3" t="s">
-        <v>366</v>
-      </c>
-      <c r="B44" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B45" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B46" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>164</v>
+      </c>
+      <c r="B47" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="47" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
-        <v>165</v>
-      </c>
-      <c r="B47" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="3" t="s">
-        <v>476</v>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>474</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B49" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B50" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B51" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B52" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B53" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B54" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B55" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>375</v>
-      </c>
-      <c r="B56" s="3" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
+        <v>374</v>
+      </c>
+      <c r="B56" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B57" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B58" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B59" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B60" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B61" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B62" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>221</v>
-      </c>
-      <c r="B63" s="3" t="s">
-        <v>352</v>
+        <v>220</v>
+      </c>
+      <c r="B63" t="s">
+        <v>351</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B64" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A65" s="3" t="s">
-        <v>348</v>
+      <c r="A65" t="s">
+        <v>347</v>
       </c>
       <c r="B65" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="3" t="s">
-        <v>456</v>
+        <v>176</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>455</v>
       </c>
       <c r="B66" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="3" t="s">
-        <v>480</v>
+        <v>179</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>478</v>
       </c>
       <c r="B67" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A68" s="5" t="s">
-        <v>455</v>
+      <c r="A68" s="3" t="s">
+        <v>454</v>
       </c>
       <c r="B68" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B69" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B70" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A71" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="B71" t="s">
         <v>184</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="B71" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B72" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B73" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B74" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B75" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B76" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B77" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B78" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B79" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B80" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B81" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B82" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B83" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B84" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B85" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B86" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B87" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B88" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B89" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B90" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B91" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B92" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B93" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B94" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B95" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>483</v>
-      </c>
-      <c r="B96" s="3" t="s">
-        <v>450</v>
+        <v>481</v>
+      </c>
+      <c r="B96" t="s">
+        <v>449</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.3">
@@ -3023,462 +3019,462 @@
         <v>86</v>
       </c>
       <c r="B97" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B98" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="3" t="s">
-        <v>449</v>
+        <v>327</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>448</v>
       </c>
       <c r="B99" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B100" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="3" t="s">
-        <v>459</v>
+        <v>278</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>458</v>
       </c>
       <c r="B101" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B102" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B103" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B104" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B105" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B106" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B107" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B108" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B109" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B110" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B111" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B112" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B113" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B114" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B115" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B116" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B117" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A118" s="3" t="s">
-        <v>475</v>
+        <v>302</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>473</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B119" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B120" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B121" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B122" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B123" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B124" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B125" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B126" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B127" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B128" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B129" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B130" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B131" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B132" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B133" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B134" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B135" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B136" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A137" s="3" t="s">
-        <v>485</v>
+        <v>393</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
+        <v>483</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B138" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="B140" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="B141" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="B142" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="B143" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="B144" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="145" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B145" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="146" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B146" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="147" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B147" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="148" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B148" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="149" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B149" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="150" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B150" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="151" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B151" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="152" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B152" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="153" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B153" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="154" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B154" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="155" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B155" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="156" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B156" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="157" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B157" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="158" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B158" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="159" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B159" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="160" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B160" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
     <row r="161" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B161" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
     </row>
   </sheetData>
@@ -3489,8 +3485,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I93"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:F93"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A11" sqref="A11:XFD13"/>
@@ -3513,74 +3509,74 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>405</v>
+      </c>
+      <c r="B2" t="s">
         <v>406</v>
-      </c>
-      <c r="B2" t="s">
-        <v>407</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B3" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>409</v>
+      </c>
+      <c r="B4" t="s">
         <v>410</v>
-      </c>
-      <c r="B4" t="s">
-        <v>411</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>411</v>
+      </c>
+      <c r="B5" t="s">
         <v>412</v>
-      </c>
-      <c r="B5" t="s">
-        <v>413</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>418</v>
+      </c>
+      <c r="B6" t="s">
         <v>419</v>
-      </c>
-      <c r="B6" t="s">
-        <v>420</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>348</v>
+      </c>
+      <c r="B7" t="s">
         <v>349</v>
-      </c>
-      <c r="B7" t="s">
-        <v>350</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>396</v>
+      </c>
+      <c r="B8" t="s">
         <v>397</v>
       </c>
-      <c r="B8" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="E9" s="3" t="s">
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E9" t="s">
+        <v>459</v>
+      </c>
+      <c r="F9" t="s">
         <v>460</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>461</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
+        <v>400</v>
+      </c>
+      <c r="B10" t="s">
         <v>401</v>
-      </c>
-      <c r="B10" t="s">
-        <v>402</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -3588,7 +3584,7 @@
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -3596,15 +3592,15 @@
         <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B13" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -3612,7 +3608,7 @@
         <v>33</v>
       </c>
       <c r="B14" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
@@ -3620,7 +3616,7 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
@@ -3628,34 +3624,34 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>53</v>
       </c>
       <c r="B17" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>1</v>
       </c>
       <c r="B18" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>11</v>
       </c>
       <c r="B19" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -3663,15 +3659,15 @@
         <v>75</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -3679,99 +3675,92 @@
         <v>76</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
+        <v>386</v>
+      </c>
+      <c r="B23" t="s">
         <v>387</v>
       </c>
-      <c r="B23" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
+        <v>384</v>
+      </c>
+      <c r="B24" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>383</v>
+      </c>
+      <c r="B25" t="s">
         <v>385</v>
       </c>
-      <c r="B24" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>384</v>
-      </c>
-      <c r="B25" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>73</v>
       </c>
       <c r="B26" t="s">
         <v>81</v>
       </c>
-      <c r="I26" s="3"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>64</v>
       </c>
       <c r="B27" t="s">
         <v>82</v>
       </c>
-      <c r="I27" s="3"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>47</v>
       </c>
       <c r="B28" t="s">
         <v>83</v>
       </c>
-      <c r="I28" s="3"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>48</v>
       </c>
       <c r="B29" t="s">
-        <v>270</v>
-      </c>
-      <c r="I29" s="3"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>69</v>
       </c>
       <c r="B30" t="s">
         <v>84</v>
       </c>
-      <c r="I30" s="3"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>63</v>
       </c>
       <c r="B31" t="s">
-        <v>271</v>
-      </c>
-      <c r="I31" s="3"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>62</v>
       </c>
       <c r="B32" t="s">
-        <v>272</v>
-      </c>
-      <c r="I32" s="3"/>
+        <v>271</v>
+      </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>54</v>
       </c>
       <c r="B33" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
@@ -3779,7 +3768,7 @@
         <v>55</v>
       </c>
       <c r="B34" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
@@ -3787,7 +3776,7 @@
         <v>61</v>
       </c>
       <c r="B35" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
@@ -3800,26 +3789,26 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
+        <v>303</v>
+      </c>
+      <c r="B37" t="s">
         <v>304</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
+        <v>344</v>
+      </c>
+      <c r="B38" t="s">
         <v>345</v>
-      </c>
-      <c r="B38" t="s">
-        <v>346</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B39" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
@@ -3827,7 +3816,7 @@
         <v>21</v>
       </c>
       <c r="B40" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
@@ -3843,7 +3832,7 @@
         <v>23</v>
       </c>
       <c r="B42" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
@@ -3851,7 +3840,7 @@
         <v>49</v>
       </c>
       <c r="B43" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
@@ -3859,7 +3848,7 @@
         <v>24</v>
       </c>
       <c r="B44" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
@@ -3867,7 +3856,7 @@
         <v>50</v>
       </c>
       <c r="B45" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
@@ -3875,7 +3864,7 @@
         <v>25</v>
       </c>
       <c r="B46" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
@@ -3891,7 +3880,7 @@
         <v>26</v>
       </c>
       <c r="B48" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
@@ -3899,7 +3888,7 @@
         <v>14</v>
       </c>
       <c r="B49" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
@@ -3907,7 +3896,7 @@
         <v>28</v>
       </c>
       <c r="B50" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
@@ -3915,7 +3904,7 @@
         <v>51</v>
       </c>
       <c r="B51" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
@@ -3923,7 +3912,7 @@
         <v>29</v>
       </c>
       <c r="B52" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
@@ -3931,7 +3920,7 @@
         <v>30</v>
       </c>
       <c r="B53" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
@@ -3939,7 +3928,7 @@
         <v>31</v>
       </c>
       <c r="B54" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
@@ -3947,7 +3936,7 @@
         <v>67</v>
       </c>
       <c r="B55" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
@@ -3955,7 +3944,7 @@
         <v>68</v>
       </c>
       <c r="B56" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
@@ -3963,7 +3952,7 @@
         <v>32</v>
       </c>
       <c r="B57" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
@@ -3971,7 +3960,7 @@
         <v>34</v>
       </c>
       <c r="B58" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
@@ -3979,7 +3968,7 @@
         <v>65</v>
       </c>
       <c r="B59" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
@@ -3987,7 +3976,7 @@
         <v>66</v>
       </c>
       <c r="B60" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
@@ -3995,7 +3984,7 @@
         <v>35</v>
       </c>
       <c r="B61" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
@@ -4011,7 +4000,7 @@
         <v>59</v>
       </c>
       <c r="B63" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
@@ -4019,143 +4008,135 @@
         <v>58</v>
       </c>
       <c r="B64" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>36</v>
       </c>
       <c r="B65" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>52</v>
       </c>
       <c r="B66" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>37</v>
       </c>
       <c r="B67" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>38</v>
       </c>
       <c r="B68" t="s">
-        <v>263</v>
-      </c>
-      <c r="I68" s="3"/>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>45</v>
       </c>
       <c r="B69" t="s">
-        <v>264</v>
-      </c>
-      <c r="I69" s="3"/>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>39</v>
       </c>
       <c r="B70" t="s">
-        <v>265</v>
-      </c>
-      <c r="I70" s="3"/>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>60</v>
       </c>
       <c r="B71" t="s">
-        <v>266</v>
-      </c>
-      <c r="I71" s="3"/>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>40</v>
       </c>
       <c r="B72" t="s">
-        <v>267</v>
-      </c>
-      <c r="I72" s="3"/>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>3</v>
       </c>
       <c r="B73" t="s">
-        <v>268</v>
-      </c>
-      <c r="I73" s="3"/>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>42</v>
       </c>
       <c r="B74" t="s">
-        <v>269</v>
-      </c>
-      <c r="I74" s="3"/>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>43</v>
       </c>
       <c r="B75" t="s">
-        <v>421</v>
-      </c>
-      <c r="I75" s="3"/>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
+        <v>389</v>
+      </c>
+      <c r="B76" t="s">
         <v>390</v>
       </c>
-      <c r="B76" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B77" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>6</v>
       </c>
       <c r="B78" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>0</v>
       </c>
       <c r="B79" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>22</v>
       </c>
       <c r="B80" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
@@ -4163,7 +4144,7 @@
         <v>9</v>
       </c>
       <c r="B81" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
@@ -4171,7 +4152,7 @@
         <v>2</v>
       </c>
       <c r="B82" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
@@ -4179,7 +4160,7 @@
         <v>41</v>
       </c>
       <c r="B83" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
@@ -4187,7 +4168,7 @@
         <v>4</v>
       </c>
       <c r="B84" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
@@ -4195,7 +4176,7 @@
         <v>57</v>
       </c>
       <c r="B85" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
@@ -4203,7 +4184,7 @@
         <v>5</v>
       </c>
       <c r="B86" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
@@ -4211,7 +4192,7 @@
         <v>7</v>
       </c>
       <c r="B87" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
@@ -4219,7 +4200,7 @@
         <v>27</v>
       </c>
       <c r="B88" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
@@ -4227,7 +4208,7 @@
         <v>8</v>
       </c>
       <c r="B89" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
@@ -4235,7 +4216,7 @@
         <v>10</v>
       </c>
       <c r="B90" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
@@ -4243,7 +4224,7 @@
         <v>12</v>
       </c>
       <c r="B91" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
@@ -4251,15 +4232,15 @@
         <v>56</v>
       </c>
       <c r="B92" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
+        <v>463</v>
+      </c>
+      <c r="B93" t="s">
         <v>464</v>
-      </c>
-      <c r="B93" t="s">
-        <v>465</v>
       </c>
     </row>
   </sheetData>
